--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +34,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -95,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,32 +130,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,6 +167,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,91 +486,84 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>43886</v>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>43808</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>13205</v>
-      </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>633</v>
-      </c>
-      <c r="E2" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="6">
-        <f>D2*E2</f>
-        <v>2842.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11846</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>6209</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>359</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>872.37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+        <v>5464</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43850</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -554,18 +573,26 @@
         <v>12572</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="1">SUM(C4,-C6)</f>
+        <f>SUM(C4,-C2)</f>
         <v>726</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
-        <f>D4*E4</f>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
         <v>3259.7400000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="11">
+        <f>SUM(F4,F5)</f>
+        <v>4197.72</v>
+      </c>
+      <c r="H4" s="11">
+        <f>SUM(G4,G5)</f>
+        <v>4197.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -574,462 +601,142 @@
         <v>5850</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
         <v>386</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
         <v>937.98</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>43808</v>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>43886</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>11846</v>
+        <v>13205</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>604</v>
-      </c>
-      <c r="E6" s="9">
+        <v>633</v>
+      </c>
+      <c r="E6" s="12">
         <v>4.49</v>
       </c>
-      <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>2711.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>2842.17</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>3714.54</v>
+      </c>
+      <c r="H6" s="11">
+        <f>SUM(G6,G7)</f>
+        <v>3714.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>5464</v>
+        <v>6209</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>410</v>
-      </c>
-      <c r="E7" s="10">
+        <v>359</v>
+      </c>
+      <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>996.30000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>43767</v>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>872.37</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>43922</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>11242</v>
+        <v>13823</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>455</v>
-      </c>
-      <c r="E8" s="9">
+        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
+        <v>618</v>
+      </c>
+      <c r="E8" s="12">
         <v>4.49</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F13" si="2">D8*E8</f>
-        <v>2042.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>2774.82</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>3647.19</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUM(G8,G9)</f>
+        <v>3647.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>5054</v>
+        <v>6568</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="E9" s="10">
+        <f t="shared" si="2"/>
+        <v>359</v>
+      </c>
+      <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="2"/>
-        <v>641.5200000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>43731</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10787</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D17" si="3">SUM(C10,-C12)</f>
-        <v>219</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="2"/>
-        <v>983.31000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4790</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="F9" s="10">
         <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>260.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>43702</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10568</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="3"/>
-        <v>258</v>
-      </c>
-      <c r="E12" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="2"/>
-        <v>1158.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4683</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>388.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>43655</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10310</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="3"/>
-        <v>312</v>
-      </c>
-      <c r="E14" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" ref="F14:F19" si="4">D14*E14</f>
-        <v>1400.88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4523</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="4"/>
-        <v>281.88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>43611</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>9998</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="3"/>
-        <v>282</v>
-      </c>
-      <c r="E16" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="4"/>
-        <v>1288.74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4407</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="3"/>
-        <v>143</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="4"/>
-        <v>341.77000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>43583</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>9716</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D25" si="5">SUM(C18,-C20)</f>
-        <v>431</v>
-      </c>
-      <c r="E18" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="4"/>
-        <v>1969.67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4264</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="5"/>
-        <v>206</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="4"/>
-        <v>492.34000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>43549</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>9285</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="5"/>
-        <v>526</v>
-      </c>
-      <c r="E20" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" ref="F20:F25" si="6">D20*E20</f>
-        <v>2403.8200000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4058</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="6"/>
-        <v>544.92000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>43520</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>8759</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="5"/>
-        <v>582</v>
-      </c>
-      <c r="E22" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="6"/>
-        <v>2659.7400000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3830</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="5"/>
-        <v>242</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="6"/>
-        <v>578.38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>43492</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>8177</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="5"/>
-        <v>680</v>
-      </c>
-      <c r="E24" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="6"/>
-        <v>3107.6000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3588</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="5"/>
-        <v>377</v>
-      </c>
-      <c r="E25" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="6"/>
-        <v>901.03000000000009</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>43451</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>7497</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3211</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6"/>
+        <v>872.37</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(G2:G9)</f>
+        <v>11559.45</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H2:H9)</f>
+        <v>11559.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -719,24 +719,76 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="8">
+        <v>43963</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>14380</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
+        <v>557</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>2500.9300000000003</v>
       </c>
       <c r="G10" s="11">
-        <f>SUM(G2:G9)</f>
-        <v>11559.45</v>
+        <f>SUM(F10,F11)</f>
+        <v>3305.26</v>
       </c>
       <c r="H10" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>11559.45</v>
+        <f>SUM(G10,G11)</f>
+        <v>3305.26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
-        <v>11</v>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6899</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>331</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="5"/>
+        <v>804.33</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(G2:G11)</f>
+        <v>14864.710000000001</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>14864.710000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -771,24 +771,76 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="8">
+        <v>43999</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>14693</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
+        <v>313</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>1405.3700000000001</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>1901.0900000000001</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(G12,G13)</f>
+        <v>1901.0900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7103</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="7"/>
+        <v>495.72</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="11">
         <f>SUM(G2:G11)</f>
         <v>14864.710000000001</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="11">
         <f>SUM(H2:H11)</f>
         <v>14864.710000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -823,24 +823,76 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="8">
+        <v>44036</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>14908</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="8">SUM(C14,-C12)</f>
+        <v>215</v>
+      </c>
+      <c r="E14" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>1012.65</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>1298.25</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(G14,G15)</f>
+        <v>1298.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7215</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="9"/>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G16" s="11">
         <f>SUM(G2:G11)</f>
         <v>14864.710000000001</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H16" s="11">
         <f>SUM(H2:H11)</f>
         <v>14864.710000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -875,24 +875,76 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="8">
+        <v>44067</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15087</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="10">SUM(C16,-C14)</f>
+        <v>179</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
+        <v>843.09</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>1126.1399999999999</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(G16,G17)</f>
+        <v>1126.1399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7326</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="11"/>
+        <v>283.04999999999995</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G18" s="11">
         <f>SUM(G2:G11)</f>
         <v>14864.710000000001</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H18" s="11">
         <f>SUM(H2:H11)</f>
         <v>14864.710000000001</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -927,24 +927,76 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="8">
+        <v>44096</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15339</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="12">SUM(C18,-C16)</f>
+        <v>252</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>1186.92</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>1500.5700000000002</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(G18,G19)</f>
+        <v>1500.5700000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7449</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="12"/>
+        <v>123</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="13"/>
+        <v>313.64999999999998</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G20" s="11">
         <f>SUM(G2:G11)</f>
         <v>14864.710000000001</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H20" s="11">
         <f>SUM(H2:H11)</f>
         <v>14864.710000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -979,24 +979,76 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="8">
+        <v>44123</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>15604</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="14">SUM(C20,-C18)</f>
+        <v>265</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>1248.1500000000001</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>1628.1000000000001</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(G20,G21)</f>
+        <v>1628.1000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7598</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="14"/>
+        <v>149</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="15"/>
+        <v>379.95</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G22" s="11">
         <f>SUM(G2:G11)</f>
         <v>14864.710000000001</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H22" s="11">
         <f>SUM(H2:H11)</f>
         <v>14864.710000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,14 +79,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -147,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,13 +152,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -486,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -522,7 +508,7 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -532,64 +518,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>43808</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>44096</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>11846</v>
+        <v>15339</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>5464</v>
+        <v>7449</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>43850</v>
+      <c r="A4" s="6">
+        <v>44123</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>12572</v>
+        <v>15604</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
-        <v>726</v>
-      </c>
-      <c r="E4" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="10">
-        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
-        <v>3259.7400000000002</v>
-      </c>
-      <c r="G4" s="11">
+        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
+        <v>265</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1248.1500000000001</v>
+      </c>
+      <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
-        <v>4197.72</v>
-      </c>
-      <c r="H4" s="11">
+        <v>1628.1000000000001</v>
+      </c>
+      <c r="H4" s="9">
         <f>SUM(G4,G5)</f>
-        <v>4197.72</v>
+        <v>1628.1000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -598,50 +584,50 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>5850</v>
+        <v>7598</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
-        <v>386</v>
+        <f t="shared" si="0"/>
+        <v>149</v>
       </c>
       <c r="E5" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="10">
-        <f t="shared" si="0"/>
-        <v>937.98</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>379.95</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43886</v>
+      <c r="A6" s="6">
+        <v>44158</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>13205</v>
+        <v>16087</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>633</v>
-      </c>
-      <c r="E6" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>2842.17</v>
-      </c>
-      <c r="G6" s="11">
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>483</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>2274.9299999999998</v>
+      </c>
+      <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
-        <v>3714.54</v>
-      </c>
-      <c r="H6" s="11">
+        <v>3011.8799999999997</v>
+      </c>
+      <c r="H6" s="9">
         <f>SUM(G6,G7)</f>
-        <v>3714.54</v>
+        <v>3011.8799999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -650,405 +636,35 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>6209</v>
+        <v>7887</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>359</v>
+        <f t="shared" si="2"/>
+        <v>289</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>872.37</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
+        <v>736.94999999999993</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43922</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>13823</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>618</v>
-      </c>
-      <c r="E8" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>2774.82</v>
-      </c>
-      <c r="G8" s="11">
-        <f>SUM(F8,F9)</f>
-        <v>3647.19</v>
-      </c>
-      <c r="H8" s="11">
-        <f>SUM(G8,G9)</f>
-        <v>3647.19</v>
-      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6568</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>359</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="3"/>
-        <v>872.37</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43963</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>14380</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
-        <v>557</v>
-      </c>
-      <c r="E10" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
-        <v>2500.9300000000003</v>
-      </c>
-      <c r="G10" s="11">
-        <f>SUM(F10,F11)</f>
-        <v>3305.26</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(G10,G11)</f>
-        <v>3305.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6899</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>331</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="5"/>
-        <v>804.33</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43999</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>14693</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
-        <v>313</v>
-      </c>
-      <c r="E12" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
-        <v>1405.3700000000001</v>
-      </c>
-      <c r="G12" s="11">
-        <f>SUM(F12,F13)</f>
-        <v>1901.0900000000001</v>
-      </c>
-      <c r="H12" s="11">
-        <f>SUM(G12,G13)</f>
-        <v>1901.0900000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>7103</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="6"/>
-        <v>204</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="7"/>
-        <v>495.72</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>44036</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>14908</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="8">SUM(C14,-C12)</f>
-        <v>215</v>
-      </c>
-      <c r="E14" s="12">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
-        <v>1012.65</v>
-      </c>
-      <c r="G14" s="11">
-        <f>SUM(F14,F15)</f>
-        <v>1298.25</v>
-      </c>
-      <c r="H14" s="11">
-        <f>SUM(G14,G15)</f>
-        <v>1298.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7215</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="8"/>
-        <v>112</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="9"/>
-        <v>285.59999999999997</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>44067</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>15087</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="10">SUM(C16,-C14)</f>
-        <v>179</v>
-      </c>
-      <c r="E16" s="12">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
-        <v>843.09</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(F16,F17)</f>
-        <v>1126.1399999999999</v>
-      </c>
-      <c r="H16" s="11">
-        <f>SUM(G16,G17)</f>
-        <v>1126.1399999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7326</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="10"/>
-        <v>111</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="11"/>
-        <v>283.04999999999995</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>44096</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>15339</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="12">SUM(C18,-C16)</f>
-        <v>252</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
-        <v>1186.92</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(F18,F19)</f>
-        <v>1500.5700000000002</v>
-      </c>
-      <c r="H18" s="11">
-        <f>SUM(G18,G19)</f>
-        <v>1500.5700000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>7449</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="12"/>
-        <v>123</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="13"/>
-        <v>313.64999999999998</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>44123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>15604</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="14">SUM(C20,-C18)</f>
-        <v>265</v>
-      </c>
-      <c r="E20" s="12">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
-        <v>1248.1500000000001</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM(F20,F21)</f>
-        <v>1628.1000000000001</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(G20,G21)</f>
-        <v>1628.1000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>7598</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="14"/>
-        <v>149</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="15"/>
-        <v>379.95</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>14864.710000000001</v>
-      </c>
-      <c r="H22" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>14864.710000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -653,18 +653,70 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="6">
+        <v>44183</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>16556</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
+        <v>469</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>2208.9899999999998</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>2856.6899999999996</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUM(G8,G9)</f>
+        <v>2856.6899999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="2" t="s">
-        <v>11</v>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8141</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="5"/>
+        <v>647.69999999999993</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -705,18 +705,70 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="A10" s="6">
+        <v>44218</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>17243</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>687</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>3235.77</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>4163.97</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(G10,G11)</f>
+        <v>4163.97</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
-        <v>11</v>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8505</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>364</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="7"/>
+        <v>928.19999999999993</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -757,18 +757,174 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="A12" s="6">
+        <v>44246</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>17849</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>606</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>2854.2599999999998</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>3739.1099999999997</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(G12,G13)</f>
+        <v>3739.1099999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8852</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="8"/>
+        <v>347</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="9"/>
+        <v>884.84999999999991</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44277</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>18444</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
+        <v>595</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>2802.45</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>3710.25</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(G14,G15)</f>
+        <v>3710.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9208</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="10"/>
+        <v>356</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="11"/>
+        <v>907.8</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>44306</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>18877</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
+        <v>433</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>2039.43</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>2784.0299999999997</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(G16,G17)</f>
+        <v>2784.0299999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="13"/>
+        <v>744.59999999999991</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -913,18 +913,70 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="A18" s="6">
+        <v>44341</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>19300</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
+        <v>423</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>1992.33</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>2691.0299999999997</v>
+      </c>
+      <c r="H18" s="9">
+        <f>SUM(G18,G19)</f>
+        <v>2691.0299999999997</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
-        <v>11</v>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9774</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="14"/>
+        <v>274</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="15"/>
+        <v>698.69999999999993</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -965,18 +965,70 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="A20" s="6">
+        <v>44376</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>19552</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
+        <v>252</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>1186.92</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>1658.67</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(G20,G21)</f>
+        <v>1658.67</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
-        <v>11</v>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9959</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="16"/>
+        <v>185</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="17"/>
+        <v>471.74999999999994</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1017,18 +1017,70 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="A22" s="6">
+        <v>44407</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19763</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
+        <v>211</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>1046.56</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(F22,F23)</f>
+        <v>1352.08</v>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(G22,G23)</f>
+        <v>1352.08</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
-        <v>11</v>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10073</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="18"/>
+        <v>114</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="19"/>
+        <v>305.52000000000004</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1069,18 +1069,70 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="A24" s="6">
+        <v>44438</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20146</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
+        <v>383</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
+        <v>1899.68</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>2465.16</v>
+      </c>
+      <c r="H24" s="9">
+        <f>SUM(G24,G25)</f>
+        <v>2465.16</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
-        <v>11</v>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10284</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="20"/>
+        <v>211</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="21"/>
+        <v>565.48</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I31" sqref="H31:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1121,18 +1121,70 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="A26" s="6">
+        <v>44466</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20484</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="22">SUM(C26,-C24)</f>
+        <v>338</v>
+      </c>
+      <c r="E26" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ref="F26:F27" si="23">D26*E26</f>
+        <v>1676.48</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(F26,F27)</f>
+        <v>2169.6</v>
+      </c>
+      <c r="H26" s="9">
+        <f>SUM(G26,G27)</f>
+        <v>2169.6</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
-        <v>11</v>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10468</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="22"/>
+        <v>184</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="23"/>
+        <v>493.12</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="H31:I34"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1173,18 +1173,70 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="A28" s="6">
+        <v>44494</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20985</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="24">SUM(C28,-C26)</f>
+        <v>501</v>
+      </c>
+      <c r="E28" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:F29" si="25">D28*E28</f>
+        <v>2484.96</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(F28,F29)</f>
+        <v>3179.08</v>
+      </c>
+      <c r="H28" s="9">
+        <f>SUM(G28,G29)</f>
+        <v>3179.08</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
-        <v>11</v>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10727</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="24"/>
+        <v>259</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="25"/>
+        <v>694.12</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/89ee.xlsx
+++ b/sputnik/personal/ee/89ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1225,18 +1225,122 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="A30" s="6">
+        <v>44516</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>21491</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="26">SUM(C30,-C28)</f>
+        <v>506</v>
+      </c>
+      <c r="E30" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" ref="F30:F31" si="27">D30*E30</f>
+        <v>2509.7599999999998</v>
+      </c>
+      <c r="G30" s="9">
+        <f>SUM(F30,F31)</f>
+        <v>3244.08</v>
+      </c>
+      <c r="H30" s="9">
+        <f>SUM(G30,G31)</f>
+        <v>3244.08</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
-        <v>11</v>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>11001</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="26"/>
+        <v>274</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="27"/>
+        <v>734.32</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>44544</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>23348</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D33" si="28">SUM(C32,-C30)</f>
+        <v>1857</v>
+      </c>
+      <c r="E32" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" ref="F32:F33" si="29">D32*E32</f>
+        <v>9210.7199999999993</v>
+      </c>
+      <c r="G32" s="9">
+        <f>SUM(F32,F33)</f>
+        <v>13088.68</v>
+      </c>
+      <c r="H32" s="9">
+        <f>SUM(G32,G33)</f>
+        <v>13088.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>12448</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="28"/>
+        <v>1447</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="29"/>
+        <v>3877.96</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
